--- a/public/out/1/4/xlsx/file.xlsx
+++ b/public/out/1/4/xlsx/file.xlsx
@@ -3,8 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Newsvo" sheetId="2" r:id="rId4"/>
+    <sheet name="Newsvo" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -364,12 +363,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <sheetData/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <sheetData/>
+  <dimension ref="A1:F8"/>
+  <sheetData>
+    <row r="1" spans="1:6" customFormat="false">
+      <c r="A1" s="0" t="str">
+        <v>url</v>
+      </c>
+      <c r="B1" s="0" t="str">
+        <v>tags</v>
+      </c>
+      <c r="C1" s="0" t="str">
+        <v>category</v>
+      </c>
+      <c r="D1" s="0" t="str">
+        <v>content</v>
+      </c>
+      <c r="E1" s="0" t="str">
+        <v>image</v>
+      </c>
+      <c r="F1" s="0" t="str">
+        <v>title</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" customFormat="false">
+      <c r="A2" s="0" t="str">
+        <v>/news/102646</v>
+      </c>
+      <c r="B2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="C2" s="0" t="str">
+        <v>Происшествия</v>
+      </c>
+      <c r="D2" s="0" t="str">
+        <v>&lt;p&gt;В Вологде возбудили уголовное дело в отношении полковника полиции. 45-летний мужчина обвиняется в получении взятки в размере 150 тысяч рублей за помощь в изготовлении поддельного экспертного заключения.&lt;/p&gt;&lt;p&gt;По версии следствия, 8 сентября 2016 года в вечернее время заместитель начальника отдела технических экспертиз ЭКЦ УМВД России по Вологодской области, имеющий специальное звание – подполковник полиции, находясь в салоне автомобиля, припаркованного возле одного из домов по пер. Долгому областной столицы, незаконно получил денежное вознаграждение – взятку в размере  150 000 рублей от гражданина за способствование изготовлению экспертно-криминалистическим центром экспертного заключения по установлению первоначального VIN-номера ранее похищенного автомобиля, удовлетворяющего требованиям заинтересованных лиц, - сообщает следственное управление СК РФ по Вологодской области&lt;/p&gt;&lt;p&gt;Мужчина был задержан с поличным. Проведены обыски по месту службы и жительства подозреваемого.&lt;/p&gt;&lt;p&gt;В настоящее время проверяется его причастность к совершению аналогичных преступлений. Расследование уголовного дела продолжается.&lt;/p&gt;</v>
+      </c>
+      <c r="E2" s="0" t="str">
+        <v/>
+      </c>
+      <c r="F2" s="0" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:6" customFormat="false">
+      <c r="A3" s="0" t="str">
+        <v>/news/102641</v>
+      </c>
+      <c r="F3" s="0" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:6" customFormat="false">
+      <c r="A4" s="0" t="str">
+        <v>/news/102632</v>
+      </c>
+      <c r="B4" s="0" t="str">
+        <v/>
+      </c>
+      <c r="C4" s="0" t="str">
+        <v>Общество</v>
+      </c>
+      <c r="D4" s="0" t="str">
+        <v>&lt;p&gt;&lt;span style="line-height: 1.6em;"&gt;Прокуратура Вологодской области вынесла предупреждение о недопустимости нарушений закона директору СУ-13 Светлане Шабуриной. Дольщики строительного управления больше года не могут дождаться своих квартир в Вологодском и Шекснинском районах, сроки сдачи жилья нарушены.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;- Заместителем прокурора области Васильковым А.А.  директору ООО «Строительное управление – 13», ООО «Новый дом» Шабуриной С.Е. объявлено предостережение о недопустимости нарушения законодательства в сфере долевого строительства многоквартирных жилых домов. Застройщик предупреждена, что в случае невыполнения требований законодательства о долевом строительстве многоквартирных жилых домов и неисполнения взятых перед гражданами - участниками долевого строительства обязательств по передаче жилых помещений она может быть привлечена к ответственности, вплоть до уголовной, - сообщает сайт областного ведомства.&lt;/p&gt;&lt;p&gt;По фактам нарушений закона, сведения о которых поступили правоохранителям в ходе специальной «горячей линии», организованы проверки, находящиеся на контроле прокуратуры области.&lt;/p&gt;</v>
+      </c>
+      <c r="E4" s="0" t="str">
+        <v/>
+      </c>
+      <c r="F4" s="0" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" customFormat="false">
+      <c r="A5" s="0" t="str">
+        <v>/news/102640</v>
+      </c>
+      <c r="B5" s="0" t="str">
+        <v/>
+      </c>
+      <c r="C5" s="0" t="str">
+        <v>Общество</v>
+      </c>
+      <c r="D5" s="0" t="str">
+        <v>&lt;p&gt;Накануне вечером в полицию поступил звонок. Местная жительница обратилась за помощью, она попросила отвезти девушку, которая у нее гостила в другой район поселка. Гостья оказалась незрячей и в сопровождении собаки – поводыря, которую таксисты везти в салоне машин отказались, хотя у хозяйки лабрадора имелись все необходимые документы на своего четвероногого друга, а автобусы к тому времени закончили движение.&lt;/p&gt;&lt;p&gt;Капитан полиции Андрей Семенов принял решение направить к ней полицейский патруль. &lt;em&gt;«Пусть просьба могла показаться странной, но, в любой ситуации нужно стараться помочь людям»&lt;/em&gt;, -  позже отметил он.  &lt;/p&gt;&lt;p&gt;Как выяснилось позже, оперативники помогли  Юлии Дьяковой, незрячей певице родом из Череповца, которая сейчас живет в Москве. Юлю называют «девушкой с голосом Анны Герман». Она зарабатывает на жизнь уличным пением, эта деятельность официально зарегистрирована как предпринимательская.&lt;/p&gt;&lt;p&gt;В ноябре 2014 года Юлия представляла Россию в финале Международного фестиваля, посвященного творчеству Анны Герман «Мы эхо друг друга…», который проходил в Варшаве. &lt;/p&gt;</v>
+      </c>
+      <c r="E5" s="0" t="str">
+        <v/>
+      </c>
+      <c r="F5" s="0" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" customFormat="false">
+      <c r="A6" s="0" t="str">
+        <v>/news/102638</v>
+      </c>
+      <c r="B6" s="0" t="str">
+        <v/>
+      </c>
+      <c r="C6" s="0" t="str">
+        <v>Происшествия</v>
+      </c>
+      <c r="D6" s="0" t="str">
+        <v>&lt;p&gt;&lt;span style="line-height: 1.6em;"&gt;В Вологде привлекут к ответственности водителя, видеозапись нарушений которого выложил в интернет очевидец.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;Запись с грубыми нарушениями правил дорожного движения «Тойотой Лэнд Крузер» появилась в сети 3 сентября. На видео водитель иномарки, двигаясь по Окружному шоссе, выехал на встречную полосу через двойную сплошную, объехал автомобили, стоящие на перекрестке с улицей Гагарина на светофоре,  и продолжил движение.&lt;/p&gt;&lt;p&gt;Просмотрев запись, правоохранители вычислили водителя, составили на него протокол и вызвали на комиссию в ГИБДД для принятия процессуального решения. За выезд на «встречку» вологжанину грозит штраф в размере пяти тысяч рублей или лишение права управления транспортными средствами.&lt;/p&gt;&lt;p&gt;Сотрудники госавтоинспекции напоминают, что фото и видео нарушений ПДД можно отправлять им через сайт, для этого нужно зайти в раздел «&lt;a href="http://www.gibdd.ru/letter/"&gt;Прием обращений&lt;/a&gt;», описать место, время, сведения о марке машины и ее госномере и прикрепить имеющиеся файлы. Кроме того, если у вас есть информация о том, что нетрезвый водитель собирается сесть за руль или уже ведет автомобиль, необходимо сообщить в дежурную часть ближайшего отделения полиции или по телефону 02, а в Вологде – по телефону «горячей линии» 76 – 50 – 50.&lt;/p&gt;&lt;p&gt;«Нарушители Правил дорожного движения в Вологодской области от ответственности не уйдут», - отмечают в региональном ГИБДД.&lt;/p&gt;&lt;p&gt;&lt;iframe allowfullscreen="" frameborder="0" height="460" src="https://www.youtube.com/embed/wIcR6J04dLE" width="700"&gt;&lt;/iframe&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="E6" s="0" t="str">
+        <v/>
+      </c>
+      <c r="F6" s="0" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" customFormat="false">
+      <c r="A7" s="0" t="str">
+        <v>/news/102628</v>
+      </c>
+      <c r="B7" s="0" t="str">
+        <v/>
+      </c>
+      <c r="C7" s="0" t="str">
+        <v>Политика</v>
+      </c>
+      <c r="D7" s="0" t="str">
+        <v>&lt;p&gt;&lt;span style="line-height: 1.6em;"&gt;Правительством России разработан и одобрен законопроект, предусматривающий создание реестра лиц, уволенных в связи с утратой доверия. Реестр планируют разместить на Федеральном портале государственной службы и управленческих кадров.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;Информационный ресурс позволит кадровикам при отборе кандидатов на замещение должностей государственной (муниципальной) службы оперативно получать информацию о соблюдении претендентами требований законодательства о противодействии коррупции и не допускать на госслужбу лиц, уволенных в связи с утратой доверия.&lt;/p&gt;&lt;p&gt;Как сообщает сайт правительства Вологодской области со ссылкой на министерство труда, с 2012 по 2015 год в России в государственных органах и органах местного самоуправления в связи с утратой доверия было уволено около 1200 человек.&lt;/p&gt;&lt;p&gt;Разработчики проекта считают, что такой «черный список» необходим, поскольку коррупционеры при последующем трудоустройстве могут скрыть причину увольнения с предыдущего места службы. Под действие закона попадут государственные гражданские служащие любого уровня, муниципальные служащие, работники Генпрокуратуры, Следственного комитета, МВД, Центробанка, военнослужащие и таможенники.&lt;/p&gt;</v>
+      </c>
+      <c r="E7" s="0" t="str">
+        <v/>
+      </c>
+      <c r="F7" s="0" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" customFormat="false">
+      <c r="A8" s="0" t="str">
+        <v>/news/102610</v>
+      </c>
+      <c r="B8" s="0" t="str">
+        <v/>
+      </c>
+      <c r="C8" s="0" t="str">
+        <v>Общество</v>
+      </c>
+      <c r="D8" s="0" t="str">
+        <v>&lt;p&gt;&lt;span style="line-height: 1.6em;"&gt;Силач Денис Нагибин выступит 10 сентября на автошоу в Вологде. Он уже сдвигал с места БТР, теплоход, электровоз и самолет. На этот раз Денис намерен протащить за собой 30-тонный автовоз и установить рекорд области.   &lt;/span&gt;&lt;/p&gt;&lt;p&gt;«Самое сложное – это сдвинуть машину с места, - говорит он. - Впоследствии главное не потерять темп, не остановиться, потому что второй раз она уже может не сдвинуться. Основное условие, определяющее успех или поражение – это правильно выбрать площадку. Она должна быть ровная и без ям».&lt;/p&gt;&lt;p&gt;В программе субботнего праздника также выставка автомобилей, конкурсы с призами, уникальное шоу автомотокаскадеров и автопарад.&lt;/p&gt;&lt;p&gt;Городское автошоу будет посвящено, как сообщают в администрации Вологды, «завершению масштабной кампании по ремонту дорог». Оно начнется в полдень на площади Батюшкова.&lt;/p&gt;</v>
+      </c>
+      <c r="E8" s="0" t="str">
+        <v/>
+      </c>
+      <c r="F8" s="0" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>